--- a/doc/tables.xlsx
+++ b/doc/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\metapp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEAFD80-2DA2-4B9F-BAF9-2EE0993C7583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F382BEC4-34AD-4969-8FBC-D568B5C07BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>TypeKind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,11 @@
   </si>
   <si>
     <t>determined by canCast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If both F and T are registered class, return the result of canCast on F and T.
+Otherwise, return F == T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,12 +1040,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1054,15 +1059,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
-        <v>65</v>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1087,15 +1092,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
-        <v>65</v>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/doc/tables.xlsx
+++ b/doc/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\metapp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F382BEC4-34AD-4969-8FBC-D568B5C07BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC53ED1-F6F6-4E9B-A974-1A9F018A766C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type kinds" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="144">
   <si>
     <t>TypeKind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tkObject</t>
   </si>
   <si>
@@ -191,15 +187,6 @@
     <t>tkEnum</t>
   </si>
   <si>
-    <t>tkCharPtr</t>
-  </si>
-  <si>
-    <t>tkWideCharPtr</t>
-  </si>
-  <si>
-    <t>tkDefaultArgsFunction</t>
-  </si>
-  <si>
     <t>tkVariadicFunction</t>
   </si>
   <si>
@@ -211,38 +198,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Up0: the type it references to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Up0: the type it points to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1+ParameterCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Any undeclared type is tkObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2+ParameterCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Up0: the return type.
-Up1: the first parameter.
-Up2: the second parameter.
-UpN: the Nth parameter.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Up0: the class type.
-Up1: the return type.
-Up2: the first parameter.
-Up3: the second parameter.
-UpN: the N-1th parameter.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -296,6 +256,335 @@
   <si>
     <t>If both F and T are registered class, return the result of canCast on F and T.
 Otherwise, return F == T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tkAccessor</t>
+  </si>
+  <si>
+    <t>tkVariant</t>
+  </si>
+  <si>
+    <t>tkStdString</t>
+  </si>
+  <si>
+    <t>tkStdWideString</t>
+  </si>
+  <si>
+    <t>tkStdSharedPtr</t>
+  </si>
+  <si>
+    <t>tkStdUniquePtr</t>
+  </si>
+  <si>
+    <t>tkStdFunction</t>
+  </si>
+  <si>
+    <t>tkStdVector</t>
+  </si>
+  <si>
+    <t>tkStdList</t>
+  </si>
+  <si>
+    <t>tkStdDeque</t>
+  </si>
+  <si>
+    <t>tkStdArray</t>
+  </si>
+  <si>
+    <t>tkStdForwardList</t>
+  </si>
+  <si>
+    <t>tkStdStack</t>
+  </si>
+  <si>
+    <t>tkStdQueue</t>
+  </si>
+  <si>
+    <t>tkStdPriorityQueue</t>
+  </si>
+  <si>
+    <t>tkStdMap</t>
+  </si>
+  <si>
+    <t>tkStdMultimap</t>
+  </si>
+  <si>
+    <t>tkStdSet</t>
+  </si>
+  <si>
+    <t>tkStdMultiset</t>
+  </si>
+  <si>
+    <t>tkStdUnorderedMap</t>
+  </si>
+  <si>
+    <t>tkStdUnorderedMultimap</t>
+  </si>
+  <si>
+    <t>tkStdUnorderedSet</t>
+  </si>
+  <si>
+    <t>tkStdUnorderedMultiset</t>
+  </si>
+  <si>
+    <t>tkStdPair</t>
+  </si>
+  <si>
+    <t>tkStdTuple</t>
+  </si>
+  <si>
+    <t>tkStdAny</t>
+  </si>
+  <si>
+    <t>tkStdVariant</t>
+  </si>
+  <si>
+    <t>tkUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up0: the return type
+Up1: the first parameter
+Up2: the second parameter
+UpN: the Nth parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up0: the class type
+Up1: the return type
+Up2: the first parameter
+Up3: the second parameter
+UpN: the N-1th parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up0: the class type
+Up1: the value type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up0: the class type
+Up1: the first parameter
+Up2: the second parameter
+UpN: the Nth parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as the underlying type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tkDefaultArgsFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T &amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metapp::Variant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::wstring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::shared_ptr&lt;T&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the type removed by one extent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the underlying type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the value type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::unique_ptr&lt;T&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::vector&lt;T, Allocator&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::list&lt;T, Allocator&gt;</t>
+  </si>
+  <si>
+    <t>std::deque&lt;T, Allocator&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implemented meta interfaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaAccessible</t>
+  </si>
+  <si>
+    <t>MetaCallable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaCallable
+MetaMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaMember</t>
+  </si>
+  <si>
+    <t>MetaIndexable</t>
+  </si>
+  <si>
+    <t>MetaIndexable
+MetaIterable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::array&lt;T, length&gt;</t>
+  </si>
+  <si>
+    <t>std::forward_list&lt;T, Allocator&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaIterable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::stack&lt;T, Container&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::queue&lt;T, Container&gt;</t>
+  </si>
+  <si>
+    <t>std::priority_queue&lt;T, Container&gt;</t>
+  </si>
+  <si>
+    <t>std::map&lt;Key, T, Compare, Allocator&gt;</t>
+  </si>
+  <si>
+    <t>Up0: Key
+Up1: T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaIterable
+MetaMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::set&lt;Key, Compare, Allocator&gt;</t>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::pair&lt;T1, T2&gt;</t>
+  </si>
+  <si>
+    <t>Up0: T1
+Up1: T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::tuple&lt;Types...&gt;</t>
+  </si>
+  <si>
+    <t>sizeof...(Types)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up0: first type in Types
+Up1: second type in Types
+UpN: Nth type in Types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::any</t>
+  </si>
+  <si>
+    <t>std::variant&lt;Types...&gt;</t>
+  </si>
+  <si>
+    <t>std::unordered_multiset&lt;
+    Key,
+    Hash,
+    KeyEqual,
+    Allocator
+&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::unordered_set&lt;
+    Key,
+    Hash,
+    KeyEqual,
+    Allocator
+&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::unordered_multimap&lt;
+    Key,
+    T,
+    Hash,
+    KeyEqual,
+    Allocator
+&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::unordered_map&lt;
+    Key,
+    T,
+    Hash,
+    KeyEqual,
+    Allocator
+&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::multiset&lt;
+    Key,
+    Compare,
+    Allocator
+&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::multimap&lt;
+    Key,
+    T,
+    Compare,
+    Allocator
+&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,18 +914,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="4" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -650,13 +940,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -899,93 +1189,129 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>30</v>
       </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>31</v>
       </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>32</v>
       </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>36</v>
       </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,37 +1321,536 @@
       <c r="B27">
         <v>38</v>
       </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>39</v>
       </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>40</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>41</v>
       </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46">
+        <v>84</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49">
+        <v>87</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50">
+        <v>88</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51">
+        <v>89</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52">
+        <v>90</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54">
+        <v>92</v>
+      </c>
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55">
+        <v>93</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56">
+        <v>94</v>
+      </c>
+      <c r="C56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57">
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D08941-ADD9-4E66-A6BC-6353F35DEABD}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1050,90 +1875,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/doc/tables.xlsx
+++ b/doc/tables.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\metapp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC53ED1-F6F6-4E9B-A974-1A9F018A766C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDAF03C-1E8B-436C-A28D-6FE03AFE9B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="type kinds" sheetId="1" r:id="rId1"/>
+    <sheet name="meta types" sheetId="1" r:id="rId1"/>
     <sheet name="canCast" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -916,17 +916,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27.109375" customWidth="1"/>
     <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -940,13 +940,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
@@ -973,7 +973,7 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -987,7 +987,7 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0</v>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0</v>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0</v>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0</v>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0</v>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0</v>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0</v>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
@@ -1205,14 +1205,14 @@
       <c r="C20" t="s">
         <v>98</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>58</v>
-      </c>
-      <c r="F20" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,10 +1225,10 @@
       <c r="C21" t="s">
         <v>99</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1240,13 +1240,13 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F22" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="69" x14ac:dyDescent="0.25">
@@ -1256,14 +1256,14 @@
       <c r="B23">
         <v>34</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1273,14 +1273,14 @@
       <c r="B24">
         <v>35</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F24" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
@@ -1290,14 +1290,14 @@
       <c r="B25">
         <v>36</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1308,10 +1308,10 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
         <v>96</v>
-      </c>
-      <c r="F26" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,11 +1321,11 @@
       <c r="B27">
         <v>38</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="D27" t="s">
         <v>115</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,14 +1335,14 @@
       <c r="B28">
         <v>39</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F28" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,10 +1352,10 @@
       <c r="B29">
         <v>40</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1366,14 +1366,14 @@
       <c r="B30">
         <v>41</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F30" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
       <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0</v>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       <c r="C32" t="s">
         <v>101</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0</v>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       <c r="C33" t="s">
         <v>102</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0</v>
       </c>
     </row>
@@ -1428,10 +1428,10 @@
       <c r="C34" t="s">
         <v>103</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1445,10 +1445,10 @@
       <c r="C35" t="s">
         <v>108</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1463,13 +1463,13 @@
         <v>109</v>
       </c>
       <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F36" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1482,14 +1482,14 @@
       <c r="C37" t="s">
         <v>110</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>104</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1502,14 +1502,14 @@
       <c r="C38" t="s">
         <v>111</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>104</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1522,14 +1522,14 @@
       <c r="C39" t="s">
         <v>112</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39">
         <v>1</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>104</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1542,14 +1542,14 @@
       <c r="C40" t="s">
         <v>120</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40">
         <v>1</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>104</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,14 +1562,14 @@
       <c r="C41" t="s">
         <v>121</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>104</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
       <c r="C42" t="s">
         <v>123</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0</v>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       <c r="C43" t="s">
         <v>124</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0</v>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       <c r="C44" t="s">
         <v>125</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0</v>
       </c>
     </row>
@@ -1624,14 +1624,14 @@
       <c r="C45" t="s">
         <v>126</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45">
         <v>2</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
@@ -1644,14 +1644,14 @@
       <c r="C46" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46">
         <v>2</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1664,14 +1664,14 @@
       <c r="C47" t="s">
         <v>129</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47">
         <v>1</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>130</v>
-      </c>
-      <c r="F47" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="69" x14ac:dyDescent="0.25">
@@ -1684,14 +1684,14 @@
       <c r="C48" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>130</v>
-      </c>
-      <c r="F48" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -1704,14 +1704,14 @@
       <c r="C49" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49">
         <v>2</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -1724,14 +1724,14 @@
       <c r="C50" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50">
         <v>2</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
@@ -1744,14 +1744,14 @@
       <c r="C51" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51">
         <v>1</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>130</v>
-      </c>
-      <c r="F51" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
@@ -1764,14 +1764,14 @@
       <c r="C52" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52">
         <v>1</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>130</v>
-      </c>
-      <c r="F52" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1784,14 +1784,14 @@
       <c r="C53" t="s">
         <v>131</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53">
         <v>1</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F53" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
@@ -1804,14 +1804,14 @@
       <c r="C54" t="s">
         <v>133</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" t="s">
         <v>134</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,7 +1824,7 @@
       <c r="C55" t="s">
         <v>136</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
@@ -1838,10 +1838,10 @@
       <c r="C56" t="s">
         <v>137</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>135</v>
       </c>
     </row>

--- a/doc/tables.xlsx
+++ b/doc/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\metapp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDAF03C-1E8B-436C-A28D-6FE03AFE9B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC3F8F0-FF3A-493C-B7B8-C57255088A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,11 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MetaIterable
-MetaMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>std::set&lt;Key, Compare, Allocator&gt;</t>
   </si>
   <si>
@@ -586,6 +581,10 @@
     Allocator
 &gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaIterable
+MetaMappable</t>
   </si>
 </sst>
 </file>
@@ -917,7 +916,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1624,7 @@
         <v>126</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1642,10 +1641,10 @@
         <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1662,7 +1661,7 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
         <v>122</v>
@@ -1671,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="69" x14ac:dyDescent="0.25">
@@ -1682,7 +1681,7 @@
         <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
         <v>122</v>
@@ -1691,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -1702,10 +1701,10 @@
         <v>87</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -1722,10 +1721,10 @@
         <v>88</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1742,7 +1741,7 @@
         <v>89</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D51" t="s">
         <v>122</v>
@@ -1751,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
@@ -1762,7 +1761,7 @@
         <v>90</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
         <v>122</v>
@@ -1771,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1782,7 +1781,7 @@
         <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
         <v>118</v>
@@ -1791,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
@@ -1802,16 +1801,16 @@
         <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1822,7 +1821,7 @@
         <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1836,13 +1835,13 @@
         <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/tables.xlsx
+++ b/doc/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\metapp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC3F8F0-FF3A-493C-B7B8-C57255088A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B66FBDE-2065-4D2D-9CF9-658C1749AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="145">
   <si>
     <t>TypeKind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,9 +452,6 @@
     <t>MetaCallable
 MetaMember</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MetaMember</t>
   </si>
   <si>
     <t>MetaIndexable</t>
@@ -585,6 +582,15 @@
   <si>
     <t>MetaIterable
 MetaMappable</t>
+  </si>
+  <si>
+    <t>MetaAccessible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaAccessible
+MetaMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -915,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1211,7 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1272,8 +1278,8 @@
       <c r="B24">
         <v>35</v>
       </c>
-      <c r="D24" t="s">
-        <v>117</v>
+      <c r="D24" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1335,7 +1341,7 @@
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1482,7 +1488,7 @@
         <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1502,7 +1508,7 @@
         <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1522,7 +1528,7 @@
         <v>112</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1539,10 +1545,10 @@
         <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1559,10 +1565,10 @@
         <v>79</v>
       </c>
       <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1579,7 +1585,7 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1593,7 +1599,7 @@
         <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1607,7 +1613,7 @@
         <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1621,16 +1627,16 @@
         <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
@@ -1641,16 +1647,16 @@
         <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1661,16 +1667,16 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="69" x14ac:dyDescent="0.25">
@@ -1681,16 +1687,16 @@
         <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -1701,16 +1707,16 @@
         <v>87</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -1721,16 +1727,16 @@
         <v>88</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
@@ -1741,16 +1747,16 @@
         <v>89</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
@@ -1761,16 +1767,16 @@
         <v>90</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1781,16 +1787,16 @@
         <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
@@ -1801,16 +1807,16 @@
         <v>92</v>
       </c>
       <c r="C54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" t="s">
         <v>132</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,7 +1827,7 @@
         <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1835,13 +1841,13 @@
         <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
